--- a/data/analysis/abc124/initial_opportunity_charging_evci_analysis.xlsx
+++ b/data/analysis/abc124/initial_opportunity_charging_evci_analysis.xlsx
@@ -567,25 +567,25 @@
         <v>15520</v>
       </c>
       <c r="M2" t="n">
-        <v>0.674678078878547</v>
+        <v>0.7956422573950813</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2352993304890417</v>
+        <v>0.345829468723133</v>
       </c>
       <c r="O2" t="n">
         <v>2403870.519935897</v>
       </c>
       <c r="P2" t="n">
-        <v>12774273.37012463</v>
+        <v>9610500.91063983</v>
       </c>
       <c r="Q2" t="n">
-        <v>160586213694.6502</v>
+        <v>125934472748.5368</v>
       </c>
       <c r="R2" t="n">
         <v>288</v>
       </c>
       <c r="S2" t="n">
-        <v>194</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
@@ -615,7 +615,7 @@
         <v>73.81816298</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04517997219230249</v>
+        <v>0.04517997219221521</v>
       </c>
       <c r="I3" t="n">
         <v>70</v>
@@ -630,25 +630,25 @@
         <v>15520</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4692375271978285</v>
+        <v>0.7823184198052937</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0927602799734988</v>
+        <v>0.3314342517545553</v>
       </c>
       <c r="O3" t="n">
-        <v>2257949.930480756</v>
+        <v>2257949.930480538</v>
       </c>
       <c r="P3" t="n">
-        <v>9959241.386008184</v>
+        <v>9489782.072809158</v>
       </c>
       <c r="Q3" t="n">
-        <v>112026911968.6413</v>
+        <v>123852072795.958</v>
       </c>
       <c r="R3" t="n">
         <v>288</v>
       </c>
       <c r="S3" t="n">
-        <v>135</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
@@ -693,25 +693,25 @@
         <v>15520</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04327057143428031</v>
+        <v>0.3899025314745204</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.05339225809859603</v>
       </c>
       <c r="O4" t="n">
         <v>2430334.306620887</v>
       </c>
       <c r="P4" t="n">
-        <v>4067291.824449179</v>
+        <v>5917509.037883422</v>
       </c>
       <c r="Q4" t="n">
-        <v>10390782031.74831</v>
+        <v>62230362943.48938</v>
       </c>
       <c r="R4" t="n">
         <v>288</v>
       </c>
       <c r="S4" t="n">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
@@ -756,25 +756,25 @@
         <v>15520</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1202996275496527</v>
+        <v>0.6348531560714696</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.1882616688590595</v>
       </c>
       <c r="O5" t="n">
         <v>2304024.074176536</v>
       </c>
       <c r="P5" t="n">
-        <v>5139474.816388378</v>
+        <v>8156851.059011147</v>
       </c>
       <c r="Q5" t="n">
-        <v>28885938642.69956</v>
+        <v>100859012807.9423</v>
       </c>
       <c r="R5" t="n">
         <v>288</v>
       </c>
       <c r="S5" t="n">
-        <v>35</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
@@ -804,7 +804,7 @@
         <v>73.82140704</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03542469179662271</v>
+        <v>0.03542469179697981</v>
       </c>
       <c r="I6" t="n">
         <v>70</v>
@@ -819,25 +819,25 @@
         <v>15520</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1401148652215951</v>
+        <v>0.6483317092213506</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.204640141305372</v>
       </c>
       <c r="O6" t="n">
-        <v>2233561.729491557</v>
+        <v>2233561.72949245</v>
       </c>
       <c r="P6" t="n">
-        <v>5415287.112222159</v>
+        <v>8279165.461422438</v>
       </c>
       <c r="Q6" t="n">
-        <v>33643700745.83227</v>
+        <v>102968936249.5371</v>
       </c>
       <c r="R6" t="n">
         <v>288</v>
       </c>
       <c r="S6" t="n">
-        <v>40</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
@@ -882,25 +882,25 @@
         <v>15520</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1899907533395777</v>
+        <v>0.7124330713198644</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0007628546361444113</v>
+        <v>0.2710109623126705</v>
       </c>
       <c r="O7" t="n">
         <v>2193779.433494611</v>
       </c>
       <c r="P7" t="n">
-        <v>6109372.65647613</v>
+        <v>8858947.207068581</v>
       </c>
       <c r="Q7" t="n">
-        <v>45616676384.21346</v>
+        <v>112970171361.9329</v>
       </c>
       <c r="R7" t="n">
         <v>288</v>
       </c>
       <c r="S7" t="n">
-        <v>55</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
@@ -945,25 +945,25 @@
         <v>15520</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05975164166350352</v>
+        <v>0.4290406001900131</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.06528210876016062</v>
       </c>
       <c r="O8" t="n">
         <v>2397176.028281743</v>
       </c>
       <c r="P8" t="n">
-        <v>4296695.17014592</v>
+        <v>6276475.09729391</v>
       </c>
       <c r="Q8" t="n">
-        <v>14347989745.01716</v>
+        <v>68422527468.3196</v>
       </c>
       <c r="R8" t="n">
         <v>288</v>
       </c>
       <c r="S8" t="n">
-        <v>17</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
@@ -993,7 +993,7 @@
         <v>73.82059067</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05231500725611449</v>
+        <v>0.05231500725599836</v>
       </c>
       <c r="I9" t="n">
         <v>70</v>
@@ -1008,25 +1008,25 @@
         <v>15520</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1329731429628045</v>
+        <v>0.653179615706045</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.2100231272815505</v>
       </c>
       <c r="O9" t="n">
-        <v>2275787.518140286</v>
+        <v>2275787.518139996</v>
       </c>
       <c r="P9" t="n">
-        <v>5315880.037474154</v>
+        <v>8323158.965623329</v>
       </c>
       <c r="Q9" t="n">
-        <v>31928928706.42925</v>
+        <v>103727824197.0024</v>
       </c>
       <c r="R9" t="n">
         <v>288</v>
       </c>
       <c r="S9" t="n">
-        <v>38</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10">
@@ -1056,7 +1056,7 @@
         <v>73.82897561999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03442004694647588</v>
+        <v>0.03442004694693027</v>
       </c>
       <c r="I10" t="n">
         <v>70</v>
@@ -1071,25 +1071,25 @@
         <v>15520</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1424090509282132</v>
+        <v>0.7095270107862272</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.268350538609134</v>
       </c>
       <c r="O10" t="n">
-        <v>2231050.11736619</v>
+        <v>2231050.117367326</v>
       </c>
       <c r="P10" t="n">
-        <v>5447220.346498088</v>
+        <v>8832702.072902679</v>
       </c>
       <c r="Q10" t="n">
-        <v>34194549037.09195</v>
+        <v>112517442797.5712</v>
       </c>
       <c r="R10" t="n">
         <v>288</v>
       </c>
       <c r="S10" t="n">
-        <v>41</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
